--- a/calcularTestes.xlsx
+++ b/calcularTestes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diogo\Desktop\Diogo\Trabalhos da escola\4ano1sem\cp\MEI_CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A750AB1-0CBB-4F85-8932-F7DE0C96156E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234F52A6-EF27-470B-BB48-0CA04F2881A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F4BADD12-676E-4E6C-B13D-3F1C8AACCCE4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Tamanho N</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Está dentro?</t>
+  </si>
+  <si>
+    <t>N. threads</t>
   </si>
 </sst>
 </file>
@@ -144,13 +147,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,19 +472,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDECA502-C0CC-466A-B52C-7C4339AAE033}">
-  <dimension ref="A2:G13"/>
+  <dimension ref="A2:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -485,7 +497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -493,7 +505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>6</v>
@@ -511,12 +523,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="4">
-        <v>100000</v>
+        <v>1000</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -526,14 +538,14 @@
       </c>
       <c r="E6" s="3">
         <f>(D6*C3+C2*C6)*B6</f>
-        <v>1200000</v>
+        <v>12000</v>
       </c>
       <c r="G6">
         <f>E6+E7</f>
-        <v>1200048</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12048</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -551,52 +563,283 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>24</v>
+      </c>
+      <c r="J9">
+        <v>28</v>
+      </c>
+      <c r="K9">
+        <v>32</v>
+      </c>
+      <c r="L9">
+        <v>36</v>
+      </c>
+      <c r="M9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10">
+        <f>$G$6/B9</f>
+        <v>12048</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:M10" si="0">$G$6/C9</f>
+        <v>6024</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>3012</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1506</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>1004</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>753</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>602.4</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>502</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>430.28571428571428</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>376.5</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>334.66666666666669</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>301.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B12">
         <v>64000</v>
       </c>
-      <c r="C10" t="b">
-        <f>G6&lt;B10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C12" t="b">
+        <f>B10&lt;$B$12</f>
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <f>C10&lt;$B$12</f>
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <f t="shared" ref="D12:O12" si="1">D10&lt;$B$12</f>
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L12" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M12" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N12" t="b">
+        <f>M10&lt;$B$12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B13" s="1">
         <v>512000</v>
       </c>
-      <c r="C11" t="b">
-        <f t="shared" ref="C11:C12" si="0">G7&lt;B11</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C13" t="b">
+        <f>$B$10&lt;$B$13</f>
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <f>B10&lt;$B$13</f>
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <f t="shared" ref="E13:N13" si="2">C10&lt;$B$13</f>
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L13" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M13" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N13" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B14" s="1">
         <v>10236000</v>
       </c>
-      <c r="C12" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C14" t="b">
+        <f>B10&lt;$B$14</f>
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <f t="shared" ref="D14:N14" si="3">C10&lt;$B$14</f>
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J14" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L14" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M14" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N14" t="b">
+        <f>M10&lt;$B$14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B15" s="2">
         <v>3</v>
       </c>
     </row>
